--- a/Revision Sheets/BST.xlsx
+++ b/Revision Sheets/BST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Documents\DSA\Revision Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{943605EC-6888-4299-A5EA-AD9512CFB888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B160E20-C8CD-4881-8284-86CD98F28889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{1258FD1F-A657-4444-B84A-BD6FF952C015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1258FD1F-A657-4444-B84A-BD6FF952C015}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>Largest BST in Binary Tree</t>
+  </si>
+  <si>
+    <t>Populate Next Right pointers of BST</t>
+  </si>
+  <si>
+    <t>Follow Level Order Traversal, for(i=0 -&gt; q.size){ if (i &lt; size - 1) node-&gt;next = q.front(); then push node ka left and right if not NULL. }</t>
+  </si>
+  <si>
+    <t>while(root!=NULL &amp;&amp; root-&gt;val != val) { if(root-&gt;val &lt;val)  root=root-&gt;right; else    root=root-&gt;left;}  return root;</t>
+  </si>
+  <si>
+    <t>Convert Array to BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find mid of the range by mid = l+(r-l)/2. Create new node as nums[mid] and node-&gt;left = f(left, mid-1) node-&gt;right = f(mid+1, right). Base case return when (l &gt;r) return NULL. </t>
+  </si>
+  <si>
+    <t>return left&amp;&amp;right;</t>
+  </si>
+  <si>
+    <t>For every node, give a range [low,high]. If any root-&gt;val goes beyond range, return false. Bool left = isValidBST(root-&gt;left, min, root-&gt;val); bool right = isValidBST(root-&gt;right, root-&gt;val, max);</t>
   </si>
 </sst>
 </file>
@@ -427,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D93C7-28A5-42D0-98A6-6EC66668F5C8}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +460,7 @@
     <col min="2" max="2" width="78.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,79 +468,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
